--- a/output/StructureDefinition-vo2max-estimation-observation.xlsx
+++ b/output/StructureDefinition-vo2max-estimation-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -687,7 +687,7 @@
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="60842-2"/&gt;
-    &lt;display value="Oxygen consumption/body weight [Volume Rate Content] --during maximum exercise"/&gt;
+    &lt;display value="Oxygen consumption (VO2)"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1643,7 +1643,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/vo2max-metrics-cs"/&gt;
     &lt;code value="ci-lower"/&gt;
-    &lt;display value="Confidence Interval Lower"/&gt;
+    &lt;display value="CI Lower"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1727,7 +1727,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/vo2max-metrics-cs"/&gt;
     &lt;code value="ci-upper"/&gt;
-    &lt;display value="Confidence Interval Upper"/&gt;
+    &lt;display value="CI Upper"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1787,7 +1787,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/vo2max-metrics-cs"/&gt;
     &lt;code value="accuracy"/&gt;
-    &lt;display value="Estimation Accuracy"/&gt;
+    &lt;display value="Accuracy"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1889,7 +1889,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/vo2max-metrics-cs"/&gt;
     &lt;code value="percentile"/&gt;
-    &lt;display value="Percentile Rank"/&gt;
+    &lt;display value="Percentile"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2015,7 +2015,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/vo2max-metrics-cs"/&gt;
     &lt;code value="standard"/&gt;
-    &lt;display value="Classification Standard"/&gt;
+    &lt;display value="Standard"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2099,7 +2099,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/vo2max-metrics-cs"/&gt;
     &lt;code value="protocol"/&gt;
-    &lt;display value="Specific Protocol"/&gt;
+    &lt;display value="Protocol"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2141,7 +2141,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/vo2max-metrics-cs"/&gt;
     &lt;code value="validation"/&gt;
-    &lt;display value="Validation Status"/&gt;
+    &lt;display value="Validation"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2183,7 +2183,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/vo2max-metrics-cs"/&gt;
     &lt;code value="rhr-used"/&gt;
-    &lt;display value="Resting HR Used"/&gt;
+    &lt;display value="RHR Used"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2246,7 +2246,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/vo2max-metrics-cs"/&gt;
     &lt;code value="hrmax-used"/&gt;
-    &lt;display value="Max HR Used"/&gt;
+    &lt;display value="HRmax Used"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2306,7 +2306,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/vo2max-metrics-cs"/&gt;
     &lt;code value="hrmax-method"/&gt;
-    &lt;display value="HRmax Determination Method"/&gt;
+    &lt;display value="HRmax Method"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2390,7 +2390,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/vo2max-metrics-cs"/&gt;
     &lt;code value="change"/&gt;
-    &lt;display value="Change from Baseline"/&gt;
+    &lt;display value="Change"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2510,7 +2510,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/vo2max-metrics-cs"/&gt;
     &lt;code value="baseline"/&gt;
-    &lt;display value="Baseline Value"/&gt;
+    &lt;display value="Baseline"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2570,7 +2570,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/vo2max-metrics-cs"/&gt;
     &lt;code value="cv-risk"/&gt;
-    &lt;display value="Cardiovascular Risk Category"/&gt;
+    &lt;display value="CV Risk"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2612,7 +2612,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/vo2max-metrics-cs"/&gt;
     &lt;code value="mets"/&gt;
-    &lt;display value="MET Capacity"/&gt;
+    &lt;display value="METs"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
